--- a/Data/Transitions/19361969Translation.xlsx
+++ b/Data/Transitions/19361969Translation.xlsx
@@ -28,10 +28,10 @@
     <t>{1.0: 1.0, 886.0: 0.0010655856774592443}</t>
   </si>
   <si>
-    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7512315030382182e-06}</t>
-  </si>
-  <si>
-    <t>{5.0: 0.9810626254491548, 403.0: 0.005887612687734961}</t>
+    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7174174533209238e-06}</t>
+  </si>
+  <si>
+    <t>{5.0: 0.9810626254491548, 403.0: 0.005871187763315918}</t>
   </si>
   <si>
     <t>{6.0: 1.0, 561.0: 0.0047579584709249965, 979.0: 7.0703902341199035e-06}</t>
@@ -64,13 +64,13 @@
     <t>{18.0: 1.0}</t>
   </si>
   <si>
-    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.0003800630092153496, 477.0: 0.00025028495136528975}</t>
+    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.0003800630092153496, 477.0: 0.0002502803258980169}</t>
   </si>
   <si>
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -85,13 +85,13 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -100,7 +100,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927723425900513}</t>
+    <t>{49.0: 0.8862897962909823}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -154,10 +154,10 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.985751361164705}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9857571080201947}</t>
   </si>
   <si>
     <t>{82.0: 0.9989678560896491, 914.0: 0.001365578724140128, 110.0: 0.0001885338002122541}</t>
@@ -169,7 +169,7 @@
     <t>{84.0: 0.6814142894857135}</t>
   </si>
   <si>
-    <t>{85.0: 0.9895784953063307, 178.0: 0.008695627667129929, 492.0: 0.003418852880658436, 97.0: 1.3219344149476795e-05, 696.0: 3.4452665911908995e-06}</t>
+    <t>{85.0: 0.9895402914516633, 178.0: 0.008741692524372261, 492.0: 0.003418852880658436, 97.0: 1.317900243106368e-05, 696.0: 3.34744081004416e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -181,13 +181,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.4030499998860047e-06}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.96351849239523, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.004867508316901873}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9562348658443437, 91.0: 0.03648150760476995, 858.0: 0.10635135141719504}</t>
+    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.3973902580550808e-06}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.96351849239523, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.00453890631355781}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9562348658443437, 91.0: 0.03648150760476995, 858.0: 0.09917164778675883}</t>
   </si>
   <si>
     <t>{95.0: 1.0}</t>
@@ -196,7 +196,7 @@
     <t>{96.0: 1.0, 100.0: 0.001081665765278529}</t>
   </si>
   <si>
-    <t>{97.0: 0.9722904830708197}</t>
+    <t>{97.0: 0.9723237186088487}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -220,7 +220,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013439522150323544, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 1.0, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
@@ -238,16 +238,16 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 0.9962324013484037, 44.0: 0.0200443155826856}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.04832944130170801}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9506590101861113}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9974893393037774, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.031023147610285164, 152.0: 0.0003658764490503502}</t>
+    <t>{142.0: 0.9962324013484037, 44.0: 0.019826992689839017}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.04467886430582105}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9543139172956562}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9974893393037774, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.031022815778396627, 152.0: 0.0003658795242960575}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -265,7 +265,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054}</t>
+    <t>{152.0: 0.9280286630608138}</t>
   </si>
   <si>
     <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851}</t>
@@ -280,7 +280,7 @@
     <t>{165.0: 1.0, 914.0: 0.20441498770307043, 110.0: 0.028221832817634313}</t>
   </si>
   <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 0.9994646680942184, 596.0: 0.9994646680942184}</t>
@@ -295,13 +295,13 @@
     <t>{171.0: 0.934845750020056}</t>
   </si>
   <si>
-    <t>{172.0: 1.0, 81.0: 0.013738694929124806}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.511520929137317e-06, 831.0: 0.004032258064516129}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873}</t>
+    <t>{172.0: 1.0, 81.0: 0.013738775024671702}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.4933219741992875e-06, 831.0: 0.004032258064516129}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -313,40 +313,40 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9761333054798886, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.531692820600847, 850.0: 0.001415488374311739}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.46830717939915295, 850.0: 0.0012467412429927535}</t>
+    <t>{178.0: 0.976087630142054, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.5315600531459954, 850.0: 0.0014179661304327988}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.46843994685400464, 850.0: 0.0012495897215178515}</t>
   </si>
   <si>
     <t>{181.0: 0.9954311821816105}</t>
   </si>
   <si>
-    <t>{182.0: 1.0, 277.0: 0.0025256276927648194, 282.0: 0.0027799841143764893}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 282.0: 0.9972200158856235, 277.0: 0.003599134333067344}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06, 212.0: 4.3421902644130816e-09}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.27479290927306305, 307.0: 0.9834669117201308}</t>
+    <t>{182.0: 1.0, 277.0: 0.0025278810408921933, 282.0: 0.0028089887640449437}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 282.0: 0.9971910112359551, 277.0: 0.0035991262024297707}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06, 212.0: 4.324674369841023e-09}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.27481355893620624, 307.0: 0.9834669117201308}</t>
   </si>
   <si>
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9989618864007118}</t>
+    <t>{204.0: 0.9989611160581775}</t>
   </si>
   <si>
     <t>{205.0: 1.0, 206.0: 0.01639538570799976, 578.0: 0.0029847546889122914}</t>
@@ -358,16 +358,16 @@
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.001947570591010176}</t>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.001947570591010176}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -391,7 +391,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 503.0: 0.04728284124946513}</t>
+    <t>{222.0: 1.0, 503.0: 0.047506448839208945}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -406,7 +406,7 @@
     <t>{226.0: 0.7384353461125667, 216.0: 0.033211370672670985}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -424,25 +424,25 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10722765740994868}</t>
+    <t>{49.0: 0.1137102037090177}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8194220168160811}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18057798318391893}</t>
-  </si>
-  <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{240.0: 1.0, 241.0: 0.8102185762263944}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.18978142377360568}</t>
+  </si>
+  <si>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -451,10 +451,10 @@
     <t>{244.0: 1.0, 565.0: 0.007684666063101304}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -463,7 +463,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9990227217200097, 600.0: 1.0}</t>
+    <t>{249.0: 0.9990134418547293, 600.0: 1.0}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -475,7 +475,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -499,19 +499,19 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9979662270430174, 595.0: 0.0017117774048765308}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9979662270430174, 595.0: 0.0017292620441237876}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.06571137480117686}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9987689782519491, 479.0: 0.02114577354250803, 942.0: 0.0001945930080598899}</t>
+    <t>{400.0: 0.06158198808299092}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9987689782519491, 479.0: 0.020519381779662598, 942.0: 0.00018904612772049995}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 1.0}</t>
@@ -532,7 +532,7 @@
     <t>{276.0: 0.9998061451972473, 167.0: 0.0005353319057815846, 596.0: 0.0005353319057815846}</t>
   </si>
   <si>
-    <t>{277.0: 0.9936107335861508}</t>
+    <t>{277.0: 0.9936084889661906}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -550,10 +550,10 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081}</t>
-  </si>
-  <si>
-    <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 788.0: 0.026298366265383358, 142.0: 1.797534470597053e-05, 44.0: 3.616660946846924e-07}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195}</t>
+  </si>
+  <si>
+    <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 788.0: 0.026172626732387502, 142.0: 1.797534470597053e-05, 44.0: 3.5774486716174825e-07}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -580,7 +580,7 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9985641467881747, 298.0: 0.9258496089689167, 749.0: 0.00047013234937956776}</t>
+    <t>{297.0: 0.998555981419779, 298.0: 0.9258496089689167, 749.0: 0.00047013234937956776}</t>
   </si>
   <si>
     <t>{299.0: 0.9421714285714285, 443.0: 0.013510568751361952}</t>
@@ -589,10 +589,10 @@
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.1849036593952016e-05, 152.0: 1.3974350662682385e-07}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.9475683890577508, 144.0: 0.000958511394140859, 840.0: 0.10136869118905047}</t>
+    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.1848909853485841e-05, 152.0: 1.3974468119168037e-07}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.9475683890577508, 144.0: 0.0009544083153175263, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 0.996803409696324}</t>
@@ -601,19 +601,19 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{306.0: 0.9889451221379629, 142.0: 0.003749623306890302, 44.0: 7.544287133983491e-05}</t>
+    <t>{306.0: 0.9889451221379629, 142.0: 0.003749623306890302, 44.0: 7.462491060794599e-05}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -634,7 +634,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -643,16 +643,16 @@
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379}</t>
   </si>
   <si>
-    <t>{402.0: 0.9631065512242976, 141.0: 0.001462755443927208}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8742309217950237}</t>
+    <t>{402.0: 0.9631027328570206, 141.0: 0.001462755443927208}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8717920424772339}</t>
   </si>
   <si>
     <t>{405.0: 1.0, 404.0: 1.0, 907.0: 1.0}</t>
@@ -664,7 +664,7 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -688,22 +688,22 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 1.0, 922.0: 0.07468970214579618, 887.0: 0.003503764981820322}</t>
+    <t>{418.0: 1.0, 922.0: 0.07468428293331203, 887.0: 0.003503764981820322}</t>
   </si>
   <si>
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9911644356572448, 212.0: 0.0008028873516867112}</t>
+    <t>{420.0: 0.9911644356572448, 212.0: 0.0007996485967383983}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14934163476504986}</t>
-  </si>
-  <si>
-    <t>{423.0: 0.9970319608416004, 202.0: 0.0002402943891510571, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 680.0: 8.329277927499078e-08, 477.0: 1.2265567663800832e-05, 207.0: 6.229748827025319e-06}</t>
+    <t>{597.0: 0.13779986025929664}</t>
+  </si>
+  <si>
+    <t>{423.0: 0.9970319608416004, 202.0: 0.00024031139176103417, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 680.0: 8.329277927499078e-08, 477.0: 1.2265456117012493e-05, 207.0: 6.229748827025319e-06}</t>
   </si>
   <si>
     <t>{424.0: 1.0}</t>
@@ -712,22 +712,22 @@
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2669725101108509, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7321078791910113}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.2118598838073569, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7872205054945053}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0928228081487114e-05, 918.0: 6.570736109710267e-07}</t>
@@ -739,7 +739,7 @@
     <t>{434.0: 1.0, 585.0: 0.2521276595744681}</t>
   </si>
   <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5751974037386366e-06}</t>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5571981727767432e-06}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -766,13 +766,13 @@
     <t>{475.0: 0.9825250343608875}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 402.0: 0.035199312420877364, 141.0: 5.346032149888464e-05}</t>
+    <t>{476.0: 1.0, 402.0: 0.035199172868402566, 141.0: 5.346032149888464e-05}</t>
   </si>
   <si>
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -799,19 +799,19 @@
     <t>{489.0: 0.9861400416599904}</t>
   </si>
   <si>
-    <t>{490.0: 1.0, 503.0: 0.007702182284980745}</t>
+    <t>{490.0: 1.0, 503.0: 0.007738607050730868}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 97.0: 0.027692600544453445, 696.0: 0.0010033170977494122, 85.0: 0.0014245921465699139, 178.0: 0.015123639130140285}</t>
+    <t>{492.0: 0.995625, 97.0: 0.02765941663047021, 696.0: 0.0009748286553524804, 85.0: 0.0014245371484958996, 178.0: 0.015122998363626934}</t>
   </si>
   <si>
     <t>{493.0: 0.9993252361673415}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.2463708207241241e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.2463708207241241e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -823,19 +823,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9532064834390416, 270.0: 0.0012310217480508822, 479.0: 2.6062991219196422e-05, 942.0: 2.398434774772677e-07}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9922541481411947, 277.0: 0.00026245557621149305}</t>
+    <t>{499.0: 0.9532064834390416, 270.0: 0.0012310217480508822, 479.0: 2.5290938923166717e-05, 942.0: 2.3300673096199664e-07}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9922541481411947, 277.0: 0.0002624549833102641}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9450149764655541}</t>
+    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9447549441100602}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -862,16 +862,16 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{536.0: 0.5216757544674189}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
@@ -883,10 +883,10 @@
     <t>{540.0: 1.0, 428.0: 0.0009196106981377883}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -937,7 +937,7 @@
     <t>{573.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9356220484668233, 752.0: 0.04612635356536104, 728.0: 0.002418704649287826}</t>
+    <t>{580.0: 0.935665293499582, 752.0: 0.046284020554380495, 728.0: 0.002418704649287826}</t>
   </si>
   <si>
     <t>{581.0: 0.9889464225075689, 181.0: 0.004568817818389492}</t>
@@ -946,7 +946,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -964,7 +964,7 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -973,16 +973,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401, 171.0: 0.001857864099887012}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 171.0: 0.003889262336894597, 85.0: 0.005397362490856421, 178.0: 4.742772284122022e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.210099310416157e-08, 696.0: 1.879118509395074e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8506583652349502}</t>
+    <t>{593.0: 0.49682353666810586, 171.0: 0.0028553076820006084}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 171.0: 0.0028918187547810007, 85.0: 0.0053971541192586485, 178.0: 4.767896994673605e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.188096116246882e-08, 696.0: 1.8257623376204746e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.8622001397407033}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -1000,7 +1000,7 @@
     <t>{603.0: 0.9964699949571356}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012118805145684393}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012119753465340602}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
@@ -1012,7 +1012,7 @@
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46377929329690437}</t>
@@ -1066,7 +1066,7 @@
     <t>{626.0: 0.6875132950436077}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0, 603.0: 0.0035300050428643467}</t>
@@ -1087,19 +1087,19 @@
     <t>{636.0: 0.997141768292683}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
-  </si>
-  <si>
-    <t>{680.0: 0.9733726780999389, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 202.0: 3.560782883014801e-05, 477.0: 4.292948682330291e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
-  </si>
-  <si>
-    <t>{681.0: 0.9038226351951332, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007039869053910691}</t>
+    <t>{679.0: 0.5064363143631436}</t>
+  </si>
+  <si>
+    <t>{680.0: 0.9733726780999389, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 202.0: 3.560681346302553e-05, 477.0: 4.292909640954372e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
+  </si>
+  <si>
+    <t>{681.0: 0.9037440348804595, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.00703989207253523}</t>
   </si>
   <si>
     <t>{682.0: 1.0, 575.0: 0.001903772931810315}</t>
@@ -1117,7 +1117,7 @@
     <t>{686.0: 0.989437624892949}</t>
   </si>
   <si>
-    <t>{687.0: 0.9931478405315615, 174.0: 0.006537175659195088}</t>
+    <t>{687.0: 0.9931478405315615, 174.0: 0.006500967737618479}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1138,19 +1138,19 @@
     <t>{694.0: 0.9935162094763093, 86.0: 0.10124404446797247}</t>
   </si>
   <si>
-    <t>{695.0: 0.9726124982080356}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9989932188444743, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.624939584340261e-06}</t>
+    <t>{695.0: 0.9726649784458168}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9990218056462141, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20776196468091965}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7922380353190803, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.4351638564266561}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5648361435733439, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1159,10 +1159,10 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 477.0: 0.00024935669419516365, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
+    <t>{702.0: 0.9986789960369881}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 477.0: 0.00024935208588283014, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1204,13 +1204,13 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1222,7 +1222,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{749.0: 0.9995298676506204, 298.0: 0.07415039103108334, 297.0: 0.00040398925276964663}</t>
+    <t>{749.0: 0.9995298676506204, 298.0: 0.07415039103108334, 297.0: 0.00040628664713390897}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1231,7 +1231,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.06437795153317666}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.0643347065004179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1273,7 +1273,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1282,7 +1282,7 @@
     <t>{772.0: 1.0, 493.0: 0.0006747638326585695}</t>
   </si>
   <si>
-    <t>{992.0: 0.34352944792819384}</t>
+    <t>{992.0: 0.34353167279893726}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1294,34 +1294,34 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9965028529357629, 420.0: 0.0015274415281050933, 212.0: 1.2372956890280223e-06, 184.0: 0.006191381503173426}</t>
+    <t>{778.0: 0.9965028529357629, 420.0: 0.0015274415281050933, 212.0: 1.2323045809641737e-06, 184.0: 0.006191381503173426}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.0005083687087665827, 435.0: 0.0032377428307123032}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.0005025597569608143, 435.0: 0.0032377428307123032}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9927452636939863, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9927452636939863, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.0077458518588053235, 277.0: 2.048811805584243e-06}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.040079086164010985}</t>
-  </si>
-  <si>
-    <t>{789.0: 1.0, 681.0: 0.07824284302484964, 171.0: 0.0003762037742763266, 90.0: 5.628805209951758e-05, 420.0: 9.756350621408776e-08, 212.0: 0.0006094330323799761}</t>
+    <t>{787.0: 1.0, 500.0: 0.0077458518588053235, 277.0: 2.0488071772084432e-06}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.035008805891847364}</t>
+  </si>
+  <si>
+    <t>{789.0: 1.0, 681.0: 0.07823603868974756, 171.0: 0.0003762037742763266, 90.0: 5.628805209951758e-05, 420.0: 9.756350621408776e-08, 212.0: 0.0006094350250747332}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
@@ -1333,22 +1333,22 @@
     <t>{833.0: 0.9992826398852224, 17.0: 0.015223021717511548, 918.0: 0.0009153035400826402}</t>
   </si>
   <si>
-    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -1.0635624241439053e-05}</t>
-  </si>
-  <si>
-    <t>{835.0: 1.0, 836.0: 0.007624223891704802, 756.0: 0.012552301255230125}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9923757761082952}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 1.0, 980.0: 0.30157180612251394, 2.0: 1.0, 840.0: 0.004316784414945863, 303.0: 0.00026558267339449093, 144.0: 2.6864975813317807e-07}</t>
+    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -9.290144567754873e-06}</t>
+  </si>
+  <si>
+    <t>{835.0: 1.0, 836.0: 0.007548437197555557, 756.0: 0.012552301255230125}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9924515628024444}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 1.0, 980.0: 0.30157180612251394, 2.0: 1.0, 840.0: 0.004316784414945863, 303.0: 0.00026558267339449093, 144.0: 2.6749975497178876e-07}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 423.0: 0.001701162461015027}</t>
   </si>
   <si>
-    <t>{840.0: 0.8479073387672611, 303.0: 0.052166028268854754, 144.0: 5.276846828173793e-05}</t>
+    <t>{840.0: 0.8479073387672611, 303.0: 0.052166028268854754, 144.0: 5.254258345024819e-05}</t>
   </si>
   <si>
     <t>{841.0: 1.0}</t>
@@ -1357,7 +1357,7 @@
     <t>{842.0: 1.0, 606.0: 0.002308136180034622}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1369,25 +1369,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.9198774700023947}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.9196454994271116}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0, 7.0: 0.1141255380919011}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0022079438801396994}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.999936846093931, 202.0: 0.724873658328013, 680.0: 0.02549723214989914, 477.0: 0.9972701116692255, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003636125129370947}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022801572723862235}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.999936846093931, 202.0: 0.7248529883544482, 680.0: 0.02549723214989914, 477.0: 0.9972701616016698, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003636125129370947}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1396,10 +1396,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 1.0, 695.0: 0.01804123711340206}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06410669123707292}</t>
+    <t>{857.0: 1.0, 695.0: 0.017988252569750368}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.308581204304183}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1408,7 +1408,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6808248608561583, 619.0: 0.0001431947985895543}</t>
+    <t>{861.0: 0.6849891000612596, 619.0: 0.0001431947985895543}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1426,7 +1426,7 @@
     <t>{887.0: 0.9495979142632915, 619.0: 0.0006435006435006435, 267.0: 0.07029177718832891}</t>
   </si>
   <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1438,31 +1438,31 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 0.9841479524438573}</t>
   </si>
   <si>
-    <t>{895.0: 1.0, 209.0: 0.03218898503285146, 896.0: 1.0, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395}</t>
+    <t>{895.0: 1.0, 209.0: 0.03218652840156133, 896.0: 1.0, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395}</t>
   </si>
   <si>
     <t>{905.0: 1.0, 499.0: 0.04679351656095842}</t>
   </si>
   <si>
-    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750516307268886, 202.0: 5.753018094275371e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.050461541042687e-06}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5007363616604456}</t>
+    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750114340227723, 202.0: 5.7534504121471e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.050461541042687e-06}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.49850949482794676}</t>
   </si>
   <si>
     <t>{909.0: 0.8854133685873632}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538, 174.0: 4.510282181757012e-05}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.3191751391438416}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538, 174.0: 4.4853007598036755e-05}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.3150108999387404}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1480,7 +1480,7 @@
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125, 695.0: 0.007544505480605318}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632, 695.0: 0.0075449125671298}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1489,7 +1489,7 @@
     <t>{921.0: 0.9903586579251832, 686.0: 0.0105623751070511}</t>
   </si>
   <si>
-    <t>{922.0: 0.9203528910639235, 887.0: 0.043174629674277896}</t>
+    <t>{922.0: 0.9202861136135684, 887.0: 0.043174629674277896}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1498,7 +1498,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.4884613327317675e-06}</t>
+    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.5240935871107877e-06}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1507,7 +1507,7 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 1.0, 922.0: 0.0015375823955721872, 887.0: 7.212945291645471e-05}</t>
+    <t>{928.0: 1.0, 922.0: 0.0015374708341992789, 887.0: 7.212945291645471e-05}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1516,7 +1516,7 @@
     <t>{932.0: 1.0, 108.0: 0.0004756016360696281}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 249.0: 0.0009772782799902272, 299.0: 0.05782857142857143}</t>
+    <t>{933.0: 1.0, 249.0: 0.000986558145270687, 299.0: 0.05782857142857143}</t>
   </si>
   <si>
     <t>{934.0: 1.0, 5.0: 0.0029201396313996318}</t>
@@ -1528,25 +1528,25 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
-  </si>
-  <si>
-    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
+  </si>
+  <si>
+    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.9597625493653908}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082, 634.0: 0.07647622188456976}</t>
+    <t>{942.0: 0.9597522834883334}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371, 634.0: 0.07684418903273924}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
   </si>
   <si>
-    <t>{971.0: 0.9959752321981424, 152.0: 0.00043336244194414986}</t>
+    <t>{971.0: 0.9959752321981424, 152.0: 0.00042499476517949327}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1558,10 +1558,10 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9941776158300827, 152.0: 0.07117800722589049}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.9941776158300827, 152.0: 0.07117860548757622}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
@@ -1585,7 +1585,7 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.6522559926848331}</t>
+    <t>{992.0: 0.6522602170250872}</t>
   </si>
   <si>
     <t>{1.0: 0.9935835739493104, 886.0: 0.006416426050689767}</t>
@@ -1663,7 +1663,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.00889676964238059, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
+    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.008896769642380589, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180957, 694.0: 0.011355364681904206}</t>
@@ -1714,7 +1714,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007262, 44.0: 0.015208262399273646}</t>
+    <t>{142.0: 0.9847119224187109, 44.0: 0.015288077581289222}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1735,7 +1735,7 @@
     <t>{165.0: 0.9073568431784624, 914.0: 0.08377516737984302, 110.0: 0.008867989441694459}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589452, 893.0: 0.0007695267410542519}</t>
+    <t>{166.0: 0.9992208804051423, 893.0: 0.0007791195948578105}</t>
   </si>
   <si>
     <t>{167.0: 0.4191015179433184, 596.0: 0.5808984820566816}</t>
@@ -1765,10 +1765,10 @@
     <t>{177.0: 0.9988607234406152, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.9862602263863138, 681.0: 0.0071717530791852065, 768.0: 0.0065680205345009825}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5374525139860676, 180.0: 0.46234052964435124, 850.0: 0.00020695636958117784}</t>
+    <t>{178.0: 0.9862044958405799, 681.0: 0.007227483624919332, 768.0: 0.0065680205345009825}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5383826591317817, 180.0: 0.4614108006709617, 850.0: 0.00020654019725647354}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069355, 850.0: 0.0004474272930648772}</t>
@@ -1777,7 +1777,7 @@
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971718123968886, 277.0: 0.0020032995522036297, 282.0: 0.0008248880509073772}</t>
+    <t>{182.0: 0.997160771323791, 277.0: 0.0020111203123151546, 282.0: 0.0008281083638944757}</t>
   </si>
   <si>
     <t>{183.0: 0.7668668315083009, 282.0: 0.23072973376498054, 277.0: 0.0024034347267185468}</t>
@@ -1819,7 +1819,7 @@
     <t>{216.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 0.8492496589358797, 503.0: 0.15075034106412005}</t>
+    <t>{222.0: 0.8489405331510597, 503.0: 0.15105946684894053}</t>
   </si>
   <si>
     <t>{627.0: 0.7432267086173746, 626.0: 0.2567732913826254}</t>
@@ -1828,7 +1828,7 @@
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628106, 297.0: 0.00018045618356780222, 844.0: 0.002257761053621825}</t>
+    <t>{227.0: 0.9975636241524382, 297.0: 0.00017861479393955929, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{230.0: 0.9967205946655007, 581.0: 0.003279405334499344}</t>
@@ -1840,13 +1840,13 @@
     <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.23802619996893287, 241.0: 0.7619738000310673}</t>
+    <t>{240.0: 0.23802619996893298, 241.0: 0.7619738000310673}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -1873,19 +1873,19 @@
     <t>{262.0: 0.9992897727272732, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549508, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.9986024273630009, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 0.9873640905083751, 479.0: 0.012356147657862112, 942.0: 0.0002797618337629159}</t>
+    <t>{270.0: 0.9873640905083751, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{271.0: 0.81152036388616, 237.0: 0.1884796361138399}</t>
   </si>
   <si>
-    <t>{275.0: 0.9445925803714912, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
+    <t>{275.0: 0.9445925803714909, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937944, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1900,13 +1900,13 @@
     <t>{285.0: 0.8919655461591188, 311.0: 0.10803445384088109}</t>
   </si>
   <si>
-    <t>{286.0: 0.8543047303036019, 909.0: 0.09067170299822307, 306.0: 0.012640639376748848, 788.0: 0.04237388612014245, 142.0: 8.90370032194449e-06, 44.0: 1.3750096152363283e-07}</t>
+    <t>{286.0: 0.8543047303036019, 909.0: 0.09067170299822307, 306.0: 0.012640639376748848, 788.0: 0.04237388612014245, 142.0: 8.902978696818409e-06, 44.0: 1.3822258664971235e-07}</t>
   </si>
   <si>
     <t>{288.0: 0.40368132640157367, 8.0: 0.2512294506112126, 839.0: 0.34508922298721373}</t>
   </si>
   <si>
-    <t>{297.0: 0.8482406878811238, 298.0: 0.1517088925058671, 749.0: 5.041961300928763e-05}</t>
+    <t>{297.0: 0.8482404619792367, 298.0: 0.15170911840775386, 749.0: 5.041961300928763e-05}</t>
   </si>
   <si>
     <t>{299.0: 0.9843037974683544, 443.0: 0.01569620253164557}</t>
@@ -1915,16 +1915,16 @@
     <t>{301.0: 0.9995592383638927, 145.0: 0.00043337092059544035, 743.0: 1.3700028984314633e-06, 544.0: 4.091679947130299e-10, 975.0: 1.2513753235131679e-06, 942.0: 4.685949257780303e-06, 152.0: 8.297886403337237e-08}</t>
   </si>
   <si>
-    <t>{303.0: 0.9111152186701202, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
+    <t>{303.0: 0.9111062991603585, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{306.0: 0.9980565642100955, 142.0: 0.0019138795084553573, 44.0: 2.9556281449005184e-05}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662859, 426.0: 0.0731432659158121, 204.0: 0.001076591817902184}</t>
+    <t>{306.0: 0.9980565642100955, 142.0: 0.0019137243927740504, 44.0: 2.9711397130311997e-05}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879628, 426.0: 0.07086273685860801, 204.0: 0.0010235414534288639}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392756, 5.0: 0.05300183025736111, 759.0: 0.005269187803363386}</t>
@@ -1945,10 +1945,10 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.49482054480391596, 404.0: 0.3930108881632079, 907.0: 0.11216856703287591}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.9430399999999999, 403.0: 0.05696}</t>
+    <t>{405.0: 0.49483827665109575, 404.0: 0.3929931563160285, 907.0: 0.11216856703287591}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917457, 403.0: 0.05686174290825453}</t>
   </si>
   <si>
     <t>{410.0: 0.9895157952821079, 77.0: 0.010484204717892123}</t>
@@ -1966,7 +1966,7 @@
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9987563735853748, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021136654246143693, 680.0: 4.5181222698519826e-08, 477.0: 2.1032372732886715e-05, 207.0: 5.350025699706738e-07}</t>
+    <t>{423.0: 0.9987563735853748, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021136654246143693, 680.0: 4.5181222698519826e-08, 477.0: 2.104891443709804e-05, 207.0: 5.18460865759347e-07}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -1978,7 +1978,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9996247593749247, 431.0: 0.00018684574941587372, 783.0: 0.00018839487565938212}</t>
+    <t>{430.0: 0.9992810498068837, 431.0: 0.0003566313525363612, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2011,7 +2011,7 @@
     <t>{478.0: 0.7032887077997673, 170.0: 0.29671129220023285}</t>
   </si>
   <si>
-    <t>{479.0: 0.9240044013343366, 942.0: 0.020920854369834017, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
+    <t>{479.0: 0.9235911012950445, 942.0: 0.02133415440912519, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
@@ -2020,10 +2020,10 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{490.0: 0.977886977886978, 503.0: 0.022113022113022112}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9720767471169998, 97.0: 0.011519836235458273, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
+    <t>{490.0: 0.9779141104294476, 503.0: 0.02208588957055216}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9720767471169989, 97.0: 0.011519836235458273, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -2035,7 +2035,7 @@
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.999597044996642, 270.0: 0.00039786330040632973, 479.0: 4.978971520965257e-06, 942.0: 1.1273143066336436e-07}</t>
+    <t>{499.0: 0.999597044996642, 270.0: 0.00039786330040632973, 479.0: 4.97674446542064e-06, 942.0: 1.1495848620798401e-07}</t>
   </si>
   <si>
     <t>{500.0: 0.9993798449612405, 277.0: 0.00062015503875969}</t>
@@ -2113,7 +2113,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9870836901367744, 752.0: 0.011803962810944783, 728.0: 0.0011123470522803114}</t>
+    <t>{580.0: 0.9873633900010385, 752.0: 0.01152426294668118, 728.0: 0.0011123470522803114}</t>
   </si>
   <si>
     <t>{581.0: 0.9981590150730641, 181.0: 0.0018409849269359108}</t>
@@ -2137,7 +2137,7 @@
     <t>{593.0: 0.9966347398395027, 171.0: 0.003365260160497021}</t>
   </si>
   <si>
-    <t>{593.0: 0.9932388512887631, 171.0: 0.0033537935238321876, 85.0: 0.003295843986250127, 178.0: 8.111922299795207e-05, 492.0: 3.0314454192108706e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5504792869546685e-08}</t>
+    <t>{593.0: 0.9932388512887631, 171.0: 0.0033537935238321876, 85.0: 0.003295843986250127, 178.0: 8.111922299795207e-05, 492.0: 3.0314454192108702e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5504792869546685e-08}</t>
   </si>
   <si>
     <t>{595.0: 0.9991012043861227, 402.0: 0.0008987956138774043}</t>
@@ -2155,7 +2155,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.9960505529225909, 852.0: 0.001172884671243, 922.0: 0.0027765624061661617}</t>
+    <t>{604.0: 0.9960505529225909, 852.0: 0.0011727912431587178, 922.0: 0.0027766558342504455}</t>
   </si>
   <si>
     <t>{605.0: 0.9748587570621469, 475.0: 0.025141242937853105}</t>
@@ -2200,7 +2200,7 @@
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.00043920513052004217, 202.0: 3.267379999936262e-05, 477.0: 4.370382324335479e-05, 307.0: 4.5686685484262255e-08, 207.0: 1.1116985253964603e-06}</t>
+    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.00043920513052004217, 202.0: 3.267379999936262e-05, 477.0: 4.373819576642562e-05, 307.0: 4.5686685484262255e-08, 207.0: 1.077326002325619e-06}</t>
   </si>
   <si>
     <t>{681.0: 0.9922454003977792, 171.0: 0.00432504279801037, 90.0: 0.0007631323849157585, 420.0: 1.8494445633932727e-06, 212.0: 0.002664574974731451}</t>
@@ -2221,7 +2221,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.9971534924458071, 174.0: 0.0028465075541931244}</t>
+    <t>{687.0: 0.99712960918525, 174.0: 0.002870390814749393}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972786, 208.0: 0.042517006802721094}</t>
@@ -2239,7 +2239,7 @@
     <t>{695.0: 1.0}</t>
   </si>
   <si>
-    <t>{696.0: 0.997481713457912, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606779, 97.0: 4.11281720352593e-06}</t>
+    <t>{696.0: 0.997481713457912, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606778, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2278,10 +2278,10 @@
     <t>{743.0: 0.9994769518487788, 145.0: 0.00022416349338054986, 544.0: 0.000298505923321822, 975.0: 3.787345189111719e-07}</t>
   </si>
   <si>
-    <t>{749.0: 0.9308358891623909, 298.0: 0.06820116783259232, 297.0: 0.0009629430050168129}</t>
-  </si>
-  <si>
-    <t>{752.0: 0.8066928545138231, 580.0: 0.19330714548617692}</t>
+    <t>{749.0: 0.9308358891623909, 298.0: 0.06820126938743354, 297.0: 0.0009628414501755321}</t>
+  </si>
+  <si>
+    <t>{752.0: 0.8066160041894903, 580.0: 0.1933839958105095}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
@@ -2302,7 +2302,7 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100496, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{772.0: 0.998972602739726, 493.0: 0.0010273972602739725}</t>
@@ -2320,7 +2320,7 @@
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611934, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2347,13 +2347,13 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.7794419019431164, 536.0: 0.11351593219830383, 486.0: 0.07358523540319548, 980.0: 0.01877165457752797, 2.0: 0.01452399250116302, 840.0: 0.00015083648348333185, 303.0: 1.0422831267752875e-05, 144.0: 2.4061942134096673e-08}</t>
+    <t>{837.0: 0.7794419019431164, 536.0: 0.11351593219830383, 486.0: 0.07358523540319548, 980.0: 0.01877165457752797, 2.0: 0.01452399250116302, 840.0: 0.00015083648348333185, 303.0: 1.042272923176079e-05, 144.0: 2.4163978126184215e-08}</t>
   </si>
   <si>
     <t>{838.0: 0.9948208890807074, 423.0: 0.005179110919292188}</t>
   </si>
   <si>
-    <t>{840.0: 0.9352264726590003, 303.0: 0.06462433687495522, 144.0: 0.0001491904660445292}</t>
+    <t>{840.0: 0.9352264726590003, 303.0: 0.06462370422455951, 144.0: 0.0001498231164402462}</t>
   </si>
   <si>
     <t>{842.0: 0.9956627812415287, 606.0: 0.00433721875847113}</t>
@@ -2371,16 +2371,16 @@
     <t>{851.0: 0.7625494688606541, 7.0: 0.23745053113934594}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290925, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8260954051223964, 202.0: 0.061455739406782554, 680.0: 0.002015624264566887, 477.0: 0.10588495780442554, 307.0: 8.593151202294275e-05, 207.0: 0.004452673901477769, 481.0: 9.667988327615617e-06}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.9973455598455604, 976.0: 0.002654440154440155}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9927664599940953, 695.0: 0.007233540005904926}</t>
+    <t>{852.0: 0.9898358092259583, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8260954051223964, 202.0: 0.061455739406782554, 680.0: 0.002015624264566887, 477.0: 0.1060226296937994, 307.0: 8.593151202294275e-05, 207.0: 0.004315002012103898, 481.0: 9.667988327615617e-06}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178297, 976.0: 0.0026647286821705413}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9926963779997017, 695.0: 0.0073036220002981045}</t>
   </si>
   <si>
     <t>{861.0: 0.999875668282979, 619.0: 0.00012433171702101205}</t>
@@ -2413,7 +2413,7 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{911.0: 0.9950083194675541, 687.0: 0.0049774716761021975, 174.0: 1.4208856343726082e-05}</t>
+    <t>{911.0: 0.9950083194675541, 687.0: 0.0049773524584954265, 174.0: 1.432807395049614e-05}</t>
   </si>
   <si>
     <t>{861.0: 1.0}</t>
@@ -2428,7 +2428,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9888946350590236, 297.0: 0.005990275426909785, 695.0: 0.005115089514066495}</t>
+    <t>{919.0: 0.9890254656143604, 297.0: 0.005859444871573598, 695.0: 0.005115089514066495}</t>
   </si>
   <si>
     <t>{921.0: 0.9865234019304318, 686.0: 0.013476598069568387}</t>
@@ -2437,7 +2437,7 @@
     <t>{922.0: 0.9315741024854248, 887.0: 0.06842589751457501}</t>
   </si>
   <si>
-    <t>{925.0: 0.995852708307151, 263.0: 0.004141495125086512, 595.0: 5.7965677625520235e-06}</t>
+    <t>{925.0: 0.995852708307151, 263.0: 0.004141495551461485, 595.0: 5.796141387578684e-06}</t>
   </si>
   <si>
     <t>{928.0: 0.9986957331842743, 922.0: 0.001215021188261221, 887.0: 8.924562746451e-05}</t>
@@ -2446,7 +2446,7 @@
     <t>{932.0: 0.9982325910215623, 108.0: 0.0017674089784376105}</t>
   </si>
   <si>
-    <t>{933.0: 0.9646124122504882, 249.0: 0.000951763603601863, 299.0: 0.03443582414590989}</t>
+    <t>{933.0: 0.9646053236437082, 249.0: 0.0009588522103814202, 299.0: 0.03443582414590989}</t>
   </si>
   <si>
     <t>{934.0: 0.9935019726154563, 5.0: 0.006498027384543977}</t>
@@ -2455,13 +2455,13 @@
     <t>{937.0: 0.9949109414758269, 85.0: 0.0050890585241730275}</t>
   </si>
   <si>
-    <t>{940.0: 0.9864997747918501, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9864997747918501, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249447, 848.0: 0.16133961771190689, 634.0: 0.03863811026314845}</t>
+    <t>{943.0: 0.770064142065748, 848.0: 0.1855094754451809, 634.0: 0.04442638248907136}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
